--- a/Asignaturas.xlsx
+++ b/Asignaturas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcotuliosanchezespinosa/Sites/ISUM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58000971-FC06-3840-9F8B-9FE7FC57B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA18623A-FED9-6248-94CD-0B7D970AAB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="3240" windowWidth="24280" windowHeight="11700" xr2:uid="{E3869D21-3B89-47CA-A300-C7F76373EE9A}"/>
+    <workbookView xWindow="15660" yWindow="3080" windowWidth="20080" windowHeight="11700" xr2:uid="{E3869D21-3B89-47CA-A300-C7F76373EE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Nombre</t>
   </si>
@@ -45,47 +45,317 @@
     <t>semestre</t>
   </si>
   <si>
-    <t>INGENIERIA Y DESARROLLO REGIONAL</t>
-  </si>
-  <si>
-    <t>PROYECTO DE VIDA</t>
-  </si>
-  <si>
-    <t>CALCULO DIFERENCIAL</t>
-  </si>
-  <si>
-    <t>CEPLEC I</t>
-  </si>
-  <si>
-    <t>PROGRAMACION ORIENTADA A OBJETOS</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE COMPUTADORES</t>
-  </si>
-  <si>
-    <t>ISUMGI022</t>
-  </si>
-  <si>
-    <t>FHUM1010</t>
-  </si>
-  <si>
-    <t>ISUMGI041</t>
-  </si>
-  <si>
-    <t>LENG1010</t>
-  </si>
-  <si>
-    <t>ISUMGI023</t>
-  </si>
-  <si>
-    <t>ISUMGI033</t>
+    <t>CATEDRA MINUTO DE DIOS</t>
+  </si>
+  <si>
+    <t>CALCULO INTEGRAL</t>
+  </si>
+  <si>
+    <t>ALGEBRA LINEAL</t>
+  </si>
+  <si>
+    <t>CEPLEC II</t>
+  </si>
+  <si>
+    <t>INGLES I</t>
+  </si>
+  <si>
+    <t>METODOLOGIA DE LA INVESTIGACION</t>
+  </si>
+  <si>
+    <t>ESTRUCTURA DE DATOS</t>
+  </si>
+  <si>
+    <t>ISUMGI043</t>
+  </si>
+  <si>
+    <t>ISUMGI071</t>
+  </si>
+  <si>
+    <t>INGL1010</t>
+  </si>
+  <si>
+    <t>LENG1020</t>
+  </si>
+  <si>
+    <t>ISUMGI061</t>
+  </si>
+  <si>
+    <t>ISUMGI051</t>
+  </si>
+  <si>
+    <t>FHUM1020</t>
+  </si>
+  <si>
+    <t>EMPRENDIMIENTO</t>
+  </si>
+  <si>
+    <t>FISICA MECANICA</t>
+  </si>
+  <si>
+    <t>MATEMATICAS DISCRETAS</t>
+  </si>
+  <si>
+    <t>INGLES II</t>
+  </si>
+  <si>
+    <t>PROGRAMACION WEB</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS</t>
+  </si>
+  <si>
+    <t>ISUMGI063</t>
+  </si>
+  <si>
+    <t>ISUMGI053</t>
+  </si>
+  <si>
+    <t>INGL1020</t>
+  </si>
+  <si>
+    <t>ISUMGI091</t>
+  </si>
+  <si>
+    <t>ISUMGI081</t>
+  </si>
+  <si>
+    <t>ADMI1060</t>
+  </si>
+  <si>
+    <t>DESARROLLO SOCIAL CONTEMPORANEO</t>
+  </si>
+  <si>
+    <t>FISICA ELECTRICA</t>
+  </si>
+  <si>
+    <t>METODOS NUMERICOS</t>
+  </si>
+  <si>
+    <t>INGLES III</t>
+  </si>
+  <si>
+    <t>INGENIERIA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>SISTEMAS TRANSACCIONALES</t>
+  </si>
+  <si>
+    <t>ISUMGI083</t>
+  </si>
+  <si>
+    <t>ISUMGI073</t>
+  </si>
+  <si>
+    <t>INGL1030</t>
+  </si>
+  <si>
+    <t>ISUMGI111</t>
+  </si>
+  <si>
+    <t>ISUMGI101</t>
+  </si>
+  <si>
+    <t>PRAC1020</t>
+  </si>
+  <si>
+    <t>PRACTICA EN RESPONSABILIDAD SOCIAL</t>
+  </si>
+  <si>
+    <t>INVESTIGACION DE OPERACIONES</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD Y ESTADISTICA</t>
+  </si>
+  <si>
+    <t>TEORIA DE LA COMPUTACION</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS MASIVAS</t>
+  </si>
+  <si>
+    <t>REDES DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>ELECTIVA CPC I</t>
+  </si>
+  <si>
+    <t>ISUMGI014</t>
+  </si>
+  <si>
+    <t>ISUMGI113</t>
+  </si>
+  <si>
+    <t>ISUMGI103</t>
+  </si>
+  <si>
+    <t>ISUMGI093</t>
+  </si>
+  <si>
+    <t>ISUMGI131</t>
+  </si>
+  <si>
+    <t>ISUMGI121</t>
+  </si>
+  <si>
+    <t>PRAC1010</t>
+  </si>
+  <si>
+    <t>ETICA PROFESIONAL</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>DESARROLLO BASADO EN PLATAFORMAS</t>
+  </si>
+  <si>
+    <t>SISTEMAS OPERATIVOS</t>
+  </si>
+  <si>
+    <t>SISTESMAS DE INFORMACION GEOGRAFICA</t>
+  </si>
+  <si>
+    <t>ELECTIVA CPC II</t>
+  </si>
+  <si>
+    <t>ISUMGI024</t>
+  </si>
+  <si>
+    <t>ISUMGI153</t>
+  </si>
+  <si>
+    <t>ISUMGI143</t>
+  </si>
+  <si>
+    <t>ISUMGI133</t>
+  </si>
+  <si>
+    <t>ISUMGI123</t>
+  </si>
+  <si>
+    <t>ETIC190</t>
+  </si>
+  <si>
+    <t>ELECTIVA CMD I</t>
+  </si>
+  <si>
+    <t>SEMIARIO DE INVESTIGACION</t>
+  </si>
+  <si>
+    <t>MINERIA DE DATOS</t>
+  </si>
+  <si>
+    <t>INTERCONECTIVIDAD</t>
+  </si>
+  <si>
+    <t>ANALISIS DE DECISIONES DE INVERSION</t>
+  </si>
+  <si>
+    <t>ELECTIVA CP I</t>
+  </si>
+  <si>
+    <t>PRACTICA PROFESIONAL I</t>
+  </si>
+  <si>
+    <t>ISUMGI034</t>
+  </si>
+  <si>
+    <t>ISUMGI193</t>
+  </si>
+  <si>
+    <t>ISUMGI183</t>
+  </si>
+  <si>
+    <t>ISUMGI173</t>
+  </si>
+  <si>
+    <t>ISUMGI163</t>
+  </si>
+  <si>
+    <t>ISUMGI141</t>
+  </si>
+  <si>
+    <t>ISUMGI032</t>
+  </si>
+  <si>
+    <t>ELECTIVA CMD II</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE DATOS</t>
+  </si>
+  <si>
+    <t>PLAN DE NEGOCIOS</t>
+  </si>
+  <si>
+    <t>ELECTIVA CP II</t>
+  </si>
+  <si>
+    <t>ELECTIVA CPC III</t>
+  </si>
+  <si>
+    <t>PRACTICA PROFESIONAL II</t>
+  </si>
+  <si>
+    <t>ISUMGI054</t>
+  </si>
+  <si>
+    <t>ISUMGI044</t>
+  </si>
+  <si>
+    <t>ISUMGI223</t>
+  </si>
+  <si>
+    <t>ISUMGI213</t>
+  </si>
+  <si>
+    <t>ISUMGI203</t>
+  </si>
+  <si>
+    <t>ISUMGI042</t>
+  </si>
+  <si>
+    <t>CALIDAD DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>SISTEMAS DISTRIBUIDOS</t>
+  </si>
+  <si>
+    <t>GESTION DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>ELECTIVA CPC IV</t>
+  </si>
+  <si>
+    <t>ELECTIVA CP III</t>
+  </si>
+  <si>
+    <t>OPCION DE GRADO</t>
+  </si>
+  <si>
+    <t>ISUMGI074</t>
+  </si>
+  <si>
+    <t>ISUMGI064</t>
+  </si>
+  <si>
+    <t>ISUMGI263</t>
+  </si>
+  <si>
+    <t>ISUMGI253</t>
+  </si>
+  <si>
+    <t>ISUMGI243</t>
+  </si>
+  <si>
+    <t>ISUMGI233</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,14 +367,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,17 +395,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CE4BD5-A4C6-48BD-B3AD-2D4F392E47BB}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -493,19 +752,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>111111</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
+        <v>1111</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -513,19 +772,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>222222</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
+        <v>1111</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -533,19 +792,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>333333</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
+        <v>1111</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -553,19 +812,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>44444</v>
-      </c>
-      <c r="D5" s="2">
+        <v>1111</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -573,19 +832,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>555555</v>
-      </c>
-      <c r="D6" s="2">
+        <v>1111</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -593,41 +852,924 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>66666</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
+        <v>1111</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="2"/>
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1111</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="2"/>
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>1111</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="2"/>
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>1111</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>1111</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>1111</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1111</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>1111</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>11111</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>1111</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>1111</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>1111</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>1111</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>1111</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>1111</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>1111</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>11111</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>11111</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>111</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>1111</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>11111</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>11111</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
+        <v>1111</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30">
+        <v>1111</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31">
+        <v>11111</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>11111</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>11111</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34">
+        <v>11111</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>11111</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36">
+        <v>1111</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>1111</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38">
+        <v>1111</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39">
+        <v>1111</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>1111</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41">
+        <v>1111</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <v>1111</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>1111</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44">
+        <v>1111</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45">
+        <v>1111</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46">
+        <v>1111</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47">
+        <v>1111</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48">
+        <v>1111</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49">
+        <v>1111</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>1111</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51">
+        <v>1111</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52">
+        <v>1111</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="correo1@correo1.com1" xr:uid="{463E02D0-7C49-4572-ABE3-6FB035087A5F}"/>
-    <hyperlink ref="D3" r:id="rId2" display="correo1@correo1.com1" xr:uid="{4FF1BD6A-243D-4491-A95B-6ADCA560D262}"/>
-    <hyperlink ref="D4" r:id="rId3" display="correo1@correo1.com1" xr:uid="{AF0E1288-9B9F-4549-8734-86D4A4897085}"/>
-    <hyperlink ref="D5" r:id="rId4" display="correo1@correo1.com1" xr:uid="{16E23129-45AC-4D10-A5DD-FC49EF281A41}"/>
-    <hyperlink ref="D6" r:id="rId5" display="correo1@correo1.com1" xr:uid="{E537344A-9B42-4AF3-BC00-F69DDBE7F0A1}"/>
-    <hyperlink ref="D7" r:id="rId6" display="correo1@correo1.com1" xr:uid="{DC6110B7-7931-4C56-9F80-07D322D9AD83}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>